--- a/Syllabus_big data.xlsx
+++ b/Syllabus_big data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\빅데이터표현\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BEA09F-09CC-4FF8-BBC2-15A63EB323D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1A42B-9BF4-4EAA-9BD3-8EFFDFC4D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic information" sheetId="3" r:id="rId1"/>
@@ -27,29 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Topics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control Flow - if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control Flow - for</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control Flow - while</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction, First Steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions, Modules</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,39 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pandas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumPy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basics, Operators and Expressions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input and Output, Standard Library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Mid-term Exam.]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Final Exam.]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">e-mail 및 면담시간 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Structures - lists, tuples, strings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Structures - dictionaries, sets, sequences</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,10 +133,6 @@
   <si>
     <t>강의: 40%
 실험,실습: 60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ancestor9/Python-programing---1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,6 +180,56 @@
   </si>
   <si>
     <t xml:space="preserve">Python 프로그래밍, JAVA프로그래밍, SQL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ancestor9/https://github.com/ancestor9/Big-Data-Representtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데이터 변환과 시각화, 데이터의 종류와 분석방법 이론 예시 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Python syntax와 자료 형태</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Numpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pandas와 시각화</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데이터 종류와 분석방법, 상관관계, 카이제곱검증, ANOVA, 회귀분석, 로지스틱회귀분석</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데이터 특성공학(Feature Enginnering) - 실수형과 범주형 변환, survival ship bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Matplotlib, seaborn - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Matplotlib, seaborn - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 차원축소와 시각화(선형 - PCA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 차원축소와 시각화(비선형, t-sne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 예측모형과 결과 시각화 - I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 예측모형과 결과 시각화(Pycaret) - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 딥러닝 representation - I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 딥러닝 representation - II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데이터 특성공학(Feature Enginnering) - Target mean, WOE, 이동평균법 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +637,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -657,39 +651,39 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -700,10 +694,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -714,10 +708,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -728,7 +722,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2"/>
     </row>
@@ -737,37 +731,37 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="87" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -776,28 +770,28 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="208.8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -814,9 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -827,15 +821,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -852,23 +846,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -879,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -887,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -895,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -903,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -911,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -919,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -927,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -935,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -943,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -951,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -959,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -967,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -975,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -983,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -991,12 +985,12 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
